--- a/inst/extdata/structure_tests/invalid_structure_04.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78236B77-326A-E344-A053-4E7500D4C34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2123D69-BEDE-E84A-AA8C-D99ACBC09FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="2" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Notes</t>
   </si>
@@ -47,9 +47,6 @@
     <t>This is an example of input data that should fail tests</t>
   </si>
   <si>
-    <t>study_ID</t>
-  </si>
-  <si>
     <t>study_name</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Blaggs_etal</t>
   </si>
   <si>
-    <t>survey_ID</t>
-  </si>
-  <si>
     <t>study_key</t>
   </si>
   <si>
@@ -86,12 +80,6 @@
     <t>site_name</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t>spatial_notes</t>
   </si>
   <si>
@@ -137,9 +125,6 @@
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>Specific issue: survey_IDs are not unique within a study</t>
-  </si>
-  <si>
     <t>study01</t>
   </si>
   <si>
@@ -153,13 +138,28 @@
   </si>
   <si>
     <t>Mali</t>
+  </si>
+  <si>
+    <t>Specific issue: study_key contains IDs that are not present in studies table</t>
+  </si>
+  <si>
+    <t>survey_id</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>study_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +171,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,10 +204,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,7 +565,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,68 +588,47 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2024</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{856CC462-229B-9F4E-BE25-A59E98D21CE1}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{98F71D92-1F71-664B-ADD1-B5DC0EF018A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -650,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF84CB1-9532-2C43-A7F8-683871878F9F}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -660,52 +648,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -714,33 +702,33 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,33 +737,33 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -784,33 +772,33 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -851,24 +839,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1</v>

--- a/inst/extdata/structure_tests/invalid_structure_04.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2123D69-BEDE-E84A-AA8C-D99ACBC09FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AAAF0-1AFE-3541-AC69-F5F2930AA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Notes</t>
   </si>
@@ -68,9 +68,6 @@
     <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
   </si>
   <si>
-    <t>Blaggs_etal</t>
-  </si>
-  <si>
     <t>study_key</t>
   </si>
   <si>
@@ -116,33 +113,18 @@
     <t>crt:1:A</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>example site</t>
-  </si>
-  <si>
     <t>2020-01-01</t>
   </si>
   <si>
     <t>study01</t>
   </si>
   <si>
-    <t>example name</t>
-  </si>
-  <si>
     <t>study02</t>
   </si>
   <si>
     <t>S02</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Specific issue: study_key contains IDs that are not present in studies table</t>
-  </si>
-  <si>
     <t>survey_id</t>
   </si>
   <si>
@@ -153,6 +135,9 @@
   </si>
   <si>
     <t>study_id</t>
+  </si>
+  <si>
+    <t>Specific issue: study_keys (in surveys table) cannot be found in study_ids (in studies table)</t>
   </si>
 </sst>
 </file>
@@ -547,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458F03-62A4-D443-9D68-A11CADF671CD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +550,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -577,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,7 +573,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -608,19 +593,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
@@ -636,10 +612,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF84CB1-9532-2C43-A7F8-683871878F9F}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,51 +625,45 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -702,124 +672,36 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -829,39 +711,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
     </row>

--- a/inst/extdata/structure_tests/invalid_structure_04.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AAAF0-1AFE-3541-AC69-F5F2930AA1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0EADE-BF36-3349-A9A0-6CFFC3CB5254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Notes</t>
   </si>
@@ -47,39 +47,15 @@
     <t>This is an example of input data that should fail tests</t>
   </si>
   <si>
-    <t>study_name</t>
-  </si>
-  <si>
-    <t>study_type</t>
-  </si>
-  <si>
-    <t>authors</t>
-  </si>
-  <si>
-    <t>publication_year</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093%2Fgenetics%2F16.2.97</t>
   </si>
   <si>
-    <t>study_key</t>
-  </si>
-  <si>
     <t>country_name</t>
   </si>
   <si>
     <t>site_name</t>
   </si>
   <si>
-    <t>spatial_notes</t>
-  </si>
-  <si>
     <t>collection_start</t>
   </si>
   <si>
@@ -98,9 +74,6 @@
     <t>example data</t>
   </si>
   <si>
-    <t>survey_key</t>
-  </si>
-  <si>
     <t>variant_string</t>
   </si>
   <si>
@@ -116,12 +89,6 @@
     <t>2020-01-01</t>
   </si>
   <si>
-    <t>study01</t>
-  </si>
-  <si>
-    <t>study02</t>
-  </si>
-  <si>
     <t>S02</t>
   </si>
   <si>
@@ -137,14 +104,50 @@
     <t>study_id</t>
   </si>
   <si>
-    <t>Specific issue: study_keys (in surveys table) cannot be found in study_ids (in studies table)</t>
+    <t>Specific issue: study_ids in surveys table not in studies table</t>
+  </si>
+  <si>
+    <t>study_label</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>access_level</t>
+  </si>
+  <si>
+    <t>contributors</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>reference_year</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>location_method</t>
+  </si>
+  <si>
+    <t>location_notes</t>
+  </si>
+  <si>
+    <t>time_method</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>public</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,13 +159,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -189,12 +185,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -532,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F458F03-62A4-D443-9D68-A11CADF671CD}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -550,7 +544,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -560,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,40 +565,43 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{856CC462-229B-9F4E-BE25-A59E98D21CE1}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{32C51DC4-7C2D-864F-B29F-21A2ADC5480C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -612,10 +609,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF84CB1-9532-2C43-A7F8-683871878F9F}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,47 +620,53 @@
     <col min="8" max="10" width="14.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -671,37 +674,39 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="K3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
         <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -714,37 +719,37 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -755,13 +760,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>

--- a/inst/extdata/structure_tests/invalid_structure_04.xlsx
+++ b/inst/extdata/structure_tests/invalid_structure_04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rverity/Dropbox/Bob/Work/My Programs/Mapping/STAVE/inst/extdata/structure_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0EADE-BF36-3349-A9A0-6CFFC3CB5254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22AA5B4-7FED-0C4F-A775-8C93B8353636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="1" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
+    <workbookView xWindow="780" yWindow="1080" windowWidth="31520" windowHeight="18700" activeTab="3" xr2:uid="{A4E9C168-401F-F34B-85A4-C504E7A73195}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Notes</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>public</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -554,10 +560,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913D86B1-4503-0D4D-8A9D-3BCCCF42F647}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +571,7 @@
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -587,8 +593,11 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -716,15 +725,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E51D5F-A46A-0B42-A5D0-47D275C37629}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -740,8 +749,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -758,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
